--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -463,26 +463,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[30331  2576]
- [  993   313]]</t>
+          <t>[[30288  2619]
+ [  909   397]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[30564  2343]
- [  752   554]]</t>
+          <t>[[30328  2579]
+ [  878   428]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[29507  3400]
- [  742   564]]</t>
+          <t>[[30548  2359]
+ [  958   348]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[30375  2532]
- [  669   637]]</t>
+          <t>[[30334  2573]
+ [  720   586]]</t>
         </is>
       </c>
     </row>
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8956829275421624</v>
+        <v>0.8968813024289013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9095373103790957</v>
+        <v>0.8989565369888639</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8789349077835911</v>
+        <v>0.9030485487972408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9064390728670388</v>
+        <v>0.9037500365358198</v>
       </c>
     </row>
     <row r="4">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1492252681764005</v>
+        <v>0.1837112447940768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.263621222935998</v>
+        <v>0.1984697426385347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2140417457305503</v>
+        <v>0.1734363319212559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2846927374301676</v>
+        <v>0.2624860022396416</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -463,26 +463,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[30288  2619]
- [  909   397]]</t>
+          <t>[[96503  4301]
+ [ 2516    53]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[30328  2579]
- [  878   428]]</t>
+          <t>[[98920  1884]
+ [ 2529    40]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[30548  2359]
- [  958   348]]</t>
+          <t>[[100403    401]
+ [   560   2009]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[30334  2573]
- [  720   586]]</t>
+          <t>[[95738  5066]
+ [  560  2009]]</t>
         </is>
       </c>
     </row>
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8968813024289013</v>
+        <v>0.9340543468797462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8989565369888639</v>
+        <v>0.9573099358633299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9030485487972408</v>
+        <v>0.9907035686301066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9037500365358198</v>
+        <v>0.9455757306066381</v>
       </c>
     </row>
     <row r="4">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1837112447940768</v>
+        <v>0.01531128123645818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1984697426385347</v>
+        <v>0.01780547518361896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1734363319212559</v>
+        <v>0.8069893552922273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2624860022396416</v>
+        <v>0.4166321028618831</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nn_autoencoder</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_autoencoder</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Iso_2Auto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Iso_Auto</t>
+          <t>svm_auto</t>
         </is>
       </c>
     </row>
@@ -463,26 +448,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[96503  4301]
- [ 2516    53]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[98920  1884]
- [ 2529    40]]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[[100403    401]
- [   560   2009]]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[[95738  5066]
- [  560  2009]]</t>
+          <t>[[30878  2029]
+ [  720   586]]</t>
         </is>
       </c>
     </row>
@@ -493,16 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9340543468797462</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9573099358633299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9907035686301066</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9455757306066381</v>
+        <v>0.9196504252769415</v>
       </c>
     </row>
     <row r="4">
@@ -512,16 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01531128123645818</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01780547518361896</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8069893552922273</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4166321028618831</v>
+        <v>0.2989033409844428</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +437,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>nn_autoencoder</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lstm_autoencoder</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>iso_2auto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>iso_auto</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>svm_auto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>svm_2auto</t>
         </is>
       </c>
     </row>
@@ -448,8 +474,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[30878  2029]
- [  720   586]]</t>
+          <t>[[12177   162]
+ [  257   296]]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[[12247    92]
+ [  262   291]]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[[12213   126]
+ [  323   230]]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[[12092   247]
+ [  292   261]]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[[12113   226]
+ [  319   234]]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[[12246    93]
+ [  370   183]]</t>
         </is>
       </c>
     </row>
@@ -460,7 +516,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9196504252769415</v>
+        <v>0.9674992243251629</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9725411107663667</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9651721998138381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9581911262798635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9577257213775985</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9640862550418864</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +541,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2989033409844428</v>
+        <v>0.5855588526211671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6217948717948718</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.506050605060506</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4919886899151744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4619940769990128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4414957780458384</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -474,38 +474,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[12177   162]
- [  257   296]]</t>
+          <t>[[12262    77]
+ [  303   250]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[12247    92]
- [  262   291]]</t>
+          <t>[[12275    64]
+ [  303   250]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[12213   126]
- [  323   230]]</t>
+          <t>[[12283    56]
+ [  315   238]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[12092   247]
- [  292   261]]</t>
+          <t>[[12250    89]
+ [  247   306]]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[12113   226]
+          <t>[[12246    93]
+ [  427   126]]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[[12293    46]
  [  319   234]]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[[12246    93]
- [  370   183]]</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9674992243251629</v>
+        <v>0.9705243561898852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9725411107663667</v>
+        <v>0.971532733478126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9651721998138381</v>
+        <v>0.9712224635432827</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9581911262798635</v>
+        <v>0.9739373254731617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9577257213775985</v>
+        <v>0.9596649084703692</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9640862550418864</v>
+        <v>0.9716878684455477</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5855588526211671</v>
+        <v>0.5681818181818181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6217948717948718</v>
+        <v>0.5767012687427913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.506050605060506</v>
+        <v>0.5619834710743802</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4919886899151744</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4619940769990128</v>
+        <v>0.3264248704663212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4414957780458384</v>
+        <v>0.5618247298919568</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,38 +474,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[12262    77]
- [  303   250]]</t>
+          <t>[[12242    97]
+ [  243   310]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[12275    64]
- [  303   250]]</t>
+          <t>[[12292    47]
+ [  319   234]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[12283    56]
- [  315   238]]</t>
+          <t>[[12285    54]
+ [  321   232]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[12250    89]
- [  247   306]]</t>
+          <t>[[12162   177]
+ [  280   273]]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[12246    93]
- [  427   126]]</t>
+          <t>[[12302    37]
+ [  425   128]]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[[12293    46]
- [  319   234]]</t>
+          <t>[[12300    39]
+ [  381   172]]</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9705243561898852</v>
+        <v>0.9736270555383183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971532733478126</v>
+        <v>0.9716103009618368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9712224635432827</v>
+        <v>0.9709121936084394</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9739373254731617</v>
+        <v>0.9645516599441514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9596649084703692</v>
+        <v>0.9641638225255973</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9716878684455477</v>
+        <v>0.9674216568414521</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5681818181818181</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5767012687427913</v>
+        <v>0.5611510791366906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5619834710743802</v>
+        <v>0.5530393325387366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6455696202531646</v>
+        <v>0.5443668993020938</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3264248704663212</v>
+        <v>0.3565459610027855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5618247298919568</v>
+        <v>0.450261780104712</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.668647050857544</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.13580298423767</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.49525141716003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.885470628738403</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57.8807532787323</v>
+      </c>
+      <c r="G5" t="n">
+        <v>71.08479619026184</v>
       </c>
     </row>
   </sheetData>

--- a/result/score.xlsx
+++ b/result/score.xlsx
@@ -1,37 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>nn_autoencoder</t>
+  </si>
+  <si>
+    <t>lstm_autoencoder</t>
+  </si>
+  <si>
+    <t>iso_2auto</t>
+  </si>
+  <si>
+    <t>iso_auto</t>
+  </si>
+  <si>
+    <t>confusion_matrix</t>
+  </si>
+  <si>
+    <t>accuracy_score</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>[[1764567    8037]
+ [  42979   20112]]</t>
+  </si>
+  <si>
+    <t>[[1764484    8120]
+ [  43217   19874]]</t>
+  </si>
+  <si>
+    <t>[[1763631    8973]
+ [  41690   21401]]</t>
+  </si>
+  <si>
+    <t>[[1764990    7614]
+ [  52780   10311]]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +94,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +113,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,170 +410,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nn_autoencoder</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_autoencoder</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>iso_2auto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>iso_auto</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>svm_auto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>svm_2auto</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>confusion_matrix</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[[12242    97]
- [  243   310]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[12292    47]
- [  319   234]]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[[12285    54]
- [  321   232]]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[[12162   177]
- [  280   273]]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[[12302    37]
- [  425   128]]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[[12300    39]
- [  381   172]]</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>accuracy_score</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9736270555383183</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9716103009618368</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9709121936084394</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9645516599441514</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9641638225255973</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9674216568414521</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.9722088909105271</v>
+      </c>
+      <c r="C3">
+        <v>0.9720340252601876</v>
+      </c>
+      <c r="D3">
+        <v>0.9724011886506201</v>
+      </c>
+      <c r="E3">
+        <v>0.9671001991071502</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5611510791366906</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5530393325387366</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5443668993020938</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3565459610027855</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.450261780104712</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.4408592722490136</v>
+      </c>
+      <c r="C4">
+        <v>0.4363835977383763</v>
+      </c>
+      <c r="D4">
+        <v>0.4579468250147113</v>
+      </c>
+      <c r="E4">
+        <v>0.254542312629604</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7.668647050857544</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.13580298423767</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.49525141716003</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.885470628738403</v>
-      </c>
-      <c r="F5" t="n">
-        <v>57.8807532787323</v>
-      </c>
-      <c r="G5" t="n">
-        <v>71.08479619026184</v>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2005.750347614288</v>
+      </c>
+      <c r="C5">
+        <v>2764.298920869827</v>
+      </c>
+      <c r="D5">
+        <v>5101.554090738297</v>
+      </c>
+      <c r="E5">
+        <v>2097.334323167801</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>